--- a/prix/motip-spray.xlsx
+++ b/prix/motip-spray.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\peinture\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\peinture\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0228E8-6245-43A9-B51F-BF51B8AC5B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8B3D2E-2311-4CA4-A231-660207B7707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="768">
   <si>
     <t>path</t>
   </si>
@@ -1880,9 +1880,6 @@
     <t>Or</t>
   </si>
   <si>
-    <t>08017</t>
-  </si>
-  <si>
     <t>08018</t>
   </si>
   <si>
@@ -2325,6 +2322,24 @@
   </si>
   <si>
     <t>Gros foncé</t>
+  </si>
+  <si>
+    <t>motip/carat-argent.png</t>
+  </si>
+  <si>
+    <t>motip/carat-chrome-argent.png</t>
+  </si>
+  <si>
+    <t>motip/carat-chrome-cuivre.png</t>
+  </si>
+  <si>
+    <t>motip/carat-chrome-or.png</t>
+  </si>
+  <si>
+    <t>motip/carat-color.png</t>
+  </si>
+  <si>
+    <t>Rouge pourpre</t>
   </si>
 </sst>
 </file>
@@ -2334,7 +2349,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2355,6 +2370,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2377,7 +2399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2412,6 +2434,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2749,8 +2777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065E4AF0-A4F8-4CE3-9E23-EDCEACB756BD}">
   <dimension ref="A1:G450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="C283" sqref="C283"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2771,7 +2799,7 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -3367,7 +3395,7 @@
         <v>320</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D34" s="11">
         <v>9.66</v>
@@ -3421,7 +3449,7 @@
         <v>323</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D37" s="11">
         <v>9.66</v>
@@ -3439,7 +3467,7 @@
         <v>324</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D38" s="11">
         <v>9.66</v>
@@ -3457,7 +3485,7 @@
         <v>325</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D39" s="11">
         <v>16.47</v>
@@ -3475,7 +3503,7 @@
         <v>326</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D40" s="11">
         <v>17.04</v>
@@ -3493,7 +3521,7 @@
         <v>327</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D41" s="11">
         <v>16.47</v>
@@ -3619,7 +3647,7 @@
         <v>334</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D48" s="11">
         <v>17.04</v>
@@ -3763,7 +3791,7 @@
         <v>342</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D56" s="11">
         <v>16.47</v>
@@ -3799,7 +3827,7 @@
         <v>344</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D58" s="11">
         <v>16.47</v>
@@ -3817,7 +3845,7 @@
         <v>345</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D59" s="11">
         <v>17.900000000000002</v>
@@ -3835,7 +3863,7 @@
         <v>346</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D60" s="11">
         <v>17.88</v>
@@ -3853,7 +3881,7 @@
         <v>347</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D61" s="11">
         <v>17.04</v>
@@ -3871,7 +3899,7 @@
         <v>348</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D62" s="11">
         <v>16.47</v>
@@ -3889,7 +3917,7 @@
         <v>349</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D63" s="11">
         <v>16.47</v>
@@ -3907,7 +3935,7 @@
         <v>350</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D64" s="11">
         <v>17.04</v>
@@ -3925,7 +3953,7 @@
         <v>351</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D65" s="11">
         <v>16.47</v>
@@ -3943,7 +3971,7 @@
         <v>352</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D66" s="11">
         <v>17</v>
@@ -3961,7 +3989,7 @@
         <v>353</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D67" s="11">
         <v>17.900000000000002</v>
@@ -3979,7 +4007,7 @@
         <v>354</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D68" s="11">
         <v>17.900000000000002</v>
@@ -3997,7 +4025,7 @@
         <v>355</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D69" s="11">
         <v>17.04</v>
@@ -4015,7 +4043,7 @@
         <v>356</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D70" s="11">
         <v>16.47</v>
@@ -4033,7 +4061,7 @@
         <v>357</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D71" s="11">
         <v>17.04</v>
@@ -4051,7 +4079,7 @@
         <v>358</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D72" s="11">
         <v>10.5</v>
@@ -4069,7 +4097,7 @@
         <v>359</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D73" s="11">
         <v>9.66</v>
@@ -4105,7 +4133,7 @@
         <v>361</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D75" s="11">
         <v>10</v>
@@ -4123,7 +4151,7 @@
         <v>362</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D76" s="11">
         <v>6.05</v>
@@ -4136,12 +4164,14 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
+      <c r="A77" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B77" s="10" t="s">
         <v>363</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>614</v>
+        <v>767</v>
       </c>
       <c r="D77" s="11">
         <v>12.64</v>
@@ -4154,12 +4184,14 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
+      <c r="A78" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B78" s="10" t="s">
         <v>364</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D78" s="11">
         <v>13.75</v>
@@ -4172,12 +4204,14 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
+      <c r="A79" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B79" s="10" t="s">
         <v>365</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D79" s="11">
         <v>12.64</v>
@@ -4190,12 +4224,14 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
+      <c r="A80" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B80" s="10" t="s">
         <v>366</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D80" s="11">
         <v>12.64</v>
@@ -4208,12 +4244,14 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
+      <c r="A81" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B81" s="10" t="s">
         <v>367</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D81" s="11">
         <v>12.64</v>
@@ -4226,12 +4264,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
+      <c r="A82" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B82" s="10" t="s">
         <v>368</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D82" s="11">
         <v>12.64</v>
@@ -4244,12 +4284,14 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
+      <c r="A83" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B83" s="10" t="s">
         <v>369</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D83" s="11">
         <v>12.64</v>
@@ -4262,12 +4304,14 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
+      <c r="A84" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B84" s="10" t="s">
         <v>370</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D84" s="11">
         <v>12.64</v>
@@ -4280,12 +4324,14 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
+      <c r="A85" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B85" s="10" t="s">
         <v>371</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D85" s="11">
         <v>10.5</v>
@@ -4298,12 +4344,14 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="5"/>
+      <c r="A86" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B86" s="10" t="s">
         <v>372</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D86" s="11">
         <v>10.5</v>
@@ -4316,12 +4364,14 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
+      <c r="A87" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B87" s="10" t="s">
         <v>373</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D87" s="11">
         <v>12.64</v>
@@ -4334,12 +4384,14 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
+      <c r="A88" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B88" s="10" t="s">
         <v>374</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D88" s="11">
         <v>12.64</v>
@@ -4352,12 +4404,14 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
+      <c r="A89" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B89" s="10" t="s">
         <v>375</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D89" s="11">
         <v>10.5</v>
@@ -4370,12 +4424,14 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
+      <c r="A90" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B90" s="10" t="s">
         <v>376</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D90" s="11">
         <v>12.64</v>
@@ -4388,12 +4444,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="5"/>
+      <c r="A91" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B91" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D91" s="11">
         <v>12.64</v>
@@ -4406,12 +4464,14 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="5"/>
+      <c r="A92" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B92" s="10" t="s">
         <v>378</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D92" s="11">
         <v>12.64</v>
@@ -4424,12 +4484,14 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="5"/>
+      <c r="A93" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B93" s="10" t="s">
         <v>379</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D93" s="11">
         <v>12.64</v>
@@ -4442,12 +4504,14 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="5"/>
+      <c r="A94" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B94" s="10" t="s">
         <v>380</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D94" s="11">
         <v>12.64</v>
@@ -4460,12 +4524,14 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="5"/>
+      <c r="A95" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B95" s="10" t="s">
         <v>381</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D95" s="11">
         <v>12.64</v>
@@ -4478,12 +4544,14 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="5"/>
+      <c r="A96" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B96" s="10" t="s">
         <v>382</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D96" s="11">
         <v>12.64</v>
@@ -4496,12 +4564,14 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="5"/>
+      <c r="A97" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B97" s="10" t="s">
         <v>383</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D97" s="11">
         <v>12.64</v>
@@ -4514,12 +4584,14 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="5"/>
+      <c r="A98" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B98" s="10" t="s">
         <v>384</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D98" s="11">
         <v>12.64</v>
@@ -4532,12 +4604,14 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="5"/>
+      <c r="A99" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B99" s="10" t="s">
         <v>385</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D99" s="11">
         <v>12.64</v>
@@ -4550,12 +4624,14 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="5"/>
+      <c r="A100" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B100" s="10" t="s">
         <v>386</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D100" s="11">
         <v>12.64</v>
@@ -4568,12 +4644,14 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="5"/>
+      <c r="A101" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B101" s="10" t="s">
         <v>387</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D101" s="11">
         <v>12.64</v>
@@ -4586,12 +4664,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="5"/>
+      <c r="A102" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B102" s="10" t="s">
         <v>387</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D102" s="11">
         <v>10.4</v>
@@ -4604,12 +4684,14 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="5"/>
+      <c r="A103" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B103" s="10" t="s">
         <v>388</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D103" s="11">
         <v>12.64</v>
@@ -4622,12 +4704,14 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="5"/>
+      <c r="A104" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B104" s="10" t="s">
         <v>389</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D104" s="11">
         <v>12.64</v>
@@ -4640,12 +4724,14 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="5"/>
+      <c r="A105" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B105" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D105" s="11">
         <v>10.47</v>
@@ -4658,12 +4744,14 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="5"/>
+      <c r="A106" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B106" s="10" t="s">
         <v>391</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D106" s="11">
         <v>12.64</v>
@@ -4676,12 +4764,14 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="5"/>
+      <c r="A107" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B107" s="10" t="s">
         <v>392</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D107" s="11">
         <v>12.64</v>
@@ -4694,12 +4784,14 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="5"/>
+      <c r="A108" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B108" s="10" t="s">
         <v>393</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D108" s="11">
         <v>12.64</v>
@@ -4712,12 +4804,14 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="5"/>
+      <c r="A109" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B109" s="10" t="s">
         <v>394</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D109" s="11">
         <v>12.64</v>
@@ -4730,12 +4824,14 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="5"/>
+      <c r="A110" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B110" s="10" t="s">
         <v>395</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D110" s="11">
         <v>12.64</v>
@@ -4748,12 +4844,14 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="5"/>
+      <c r="A111" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B111" s="10" t="s">
         <v>396</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D111" s="11">
         <v>12.64</v>
@@ -4766,12 +4864,14 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="5"/>
+      <c r="A112" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B112" s="10" t="s">
         <v>397</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D112" s="11">
         <v>13.75</v>
@@ -4784,12 +4884,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="5"/>
+      <c r="A113" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B113" s="10" t="s">
         <v>398</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D113" s="11">
         <v>12.64</v>
@@ -4802,12 +4904,14 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="5"/>
+      <c r="A114" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B114" s="10" t="s">
         <v>399</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D114" s="11">
         <v>13.08</v>
@@ -4820,12 +4924,14 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="5"/>
+      <c r="A115" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B115" s="10" t="s">
         <v>400</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D115" s="11">
         <v>13.08</v>
@@ -4838,12 +4944,14 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="5"/>
+      <c r="A116" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B116" s="10" t="s">
         <v>401</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D116" s="11">
         <v>13.75</v>
@@ -4861,7 +4969,7 @@
         <v>402</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D117" s="11">
         <v>10.47</v>
@@ -4879,7 +4987,7 @@
         <v>403</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D118" s="11">
         <v>12.64</v>
@@ -4897,7 +5005,7 @@
         <v>404</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D119" s="11">
         <v>12.64</v>
@@ -4915,7 +5023,7 @@
         <v>405</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D120" s="11">
         <v>13.1</v>
@@ -4933,7 +5041,7 @@
         <v>406</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D121" s="11">
         <v>12.64</v>
@@ -4951,7 +5059,7 @@
         <v>407</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D122" s="11">
         <v>12.64</v>
@@ -4964,12 +5072,14 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="5"/>
+      <c r="A123" s="5" t="s">
+        <v>762</v>
+      </c>
       <c r="B123" s="10" t="s">
         <v>408</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D123" s="11">
         <v>12.64</v>
@@ -4987,7 +5097,7 @@
         <v>409</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D124" s="11">
         <v>12.64</v>
@@ -5005,7 +5115,7 @@
         <v>410</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D125" s="11">
         <v>13.75</v>
@@ -5018,12 +5128,14 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="5"/>
+      <c r="A126" s="5" t="s">
+        <v>765</v>
+      </c>
       <c r="B126" s="10" t="s">
         <v>411</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D126" s="11">
         <v>12.64</v>
@@ -5036,12 +5148,14 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="5"/>
+      <c r="A127" s="5" t="s">
+        <v>763</v>
+      </c>
       <c r="B127" s="10" t="s">
         <v>412</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D127" s="11">
         <v>13.75</v>
@@ -5054,12 +5168,14 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="5"/>
+      <c r="A128" s="5" t="s">
+        <v>764</v>
+      </c>
       <c r="B128" s="10" t="s">
         <v>413</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D128" s="11">
         <v>12.64</v>
@@ -5095,7 +5211,7 @@
         <v>415</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D130" s="11">
         <v>16.899999999999999</v>
@@ -5113,7 +5229,7 @@
         <v>416</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D131" s="11">
         <v>18.350000000000001</v>
@@ -5131,7 +5247,7 @@
         <v>417</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D132" s="11">
         <v>16.899999999999999</v>
@@ -5149,7 +5265,7 @@
         <v>418</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D133" s="11">
         <v>18.350000000000001</v>
@@ -5185,7 +5301,7 @@
         <v>420</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D135" s="11">
         <v>16.899999999999999</v>
@@ -5203,7 +5319,7 @@
         <v>421</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D136" s="11">
         <v>16.899999999999999</v>
@@ -5293,7 +5409,7 @@
         <v>426</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D141" s="11">
         <v>16.899999999999999</v>
@@ -5311,7 +5427,7 @@
         <v>427</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D142" s="11">
         <v>18.37</v>
@@ -5329,7 +5445,7 @@
         <v>428</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D143" s="11">
         <v>16.899999999999999</v>
@@ -5365,7 +5481,7 @@
         <v>430</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D145" s="11">
         <v>16.899999999999999</v>
@@ -5455,7 +5571,7 @@
         <v>435</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D150" s="11">
         <v>16.899999999999999</v>
@@ -5509,7 +5625,7 @@
         <v>438</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D153" s="11">
         <v>16.899999999999999</v>
@@ -5527,7 +5643,7 @@
         <v>439</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D154" s="11">
         <v>16.899999999999999</v>
@@ -5563,7 +5679,7 @@
         <v>441</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D156" s="11">
         <v>18.37</v>
@@ -5581,7 +5697,7 @@
         <v>442</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D157" s="11">
         <v>18.37</v>
@@ -5599,7 +5715,7 @@
         <v>443</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D158" s="11">
         <v>16.899999999999999</v>
@@ -5635,7 +5751,7 @@
         <v>445</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D160" s="11">
         <v>16.899999999999999</v>
@@ -5653,7 +5769,7 @@
         <v>446</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D161" s="11">
         <v>16.899999999999999</v>
@@ -5671,7 +5787,7 @@
         <v>447</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D162" s="11">
         <v>16.899999999999999</v>
@@ -5689,7 +5805,7 @@
         <v>448</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D163" s="11">
         <v>16.899999999999999</v>
@@ -5743,7 +5859,7 @@
         <v>451</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D166" s="11">
         <v>16.899999999999999</v>
@@ -5761,7 +5877,7 @@
         <v>452</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D167" s="11">
         <v>16.899999999999999</v>
@@ -5779,7 +5895,7 @@
         <v>453</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D168" s="11">
         <v>16.899999999999999</v>
@@ -5815,7 +5931,7 @@
         <v>455</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D170" s="11">
         <v>16.899999999999999</v>
@@ -5869,7 +5985,7 @@
         <v>458</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D173" s="11">
         <v>16.899999999999999</v>
@@ -5887,7 +6003,7 @@
         <v>459</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D174" s="11">
         <v>17.48</v>
@@ -5905,7 +6021,7 @@
         <v>460</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D175" s="11">
         <v>17.5</v>
@@ -5923,7 +6039,7 @@
         <v>461</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D176" s="11">
         <v>17.5</v>
@@ -5941,7 +6057,7 @@
         <v>462</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D177" s="11">
         <v>18.38</v>
@@ -5959,7 +6075,7 @@
         <v>463</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D178" s="11">
         <v>16.899999999999999</v>
@@ -5977,7 +6093,7 @@
         <v>464</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D179" s="11">
         <v>17.5</v>
@@ -5995,7 +6111,7 @@
         <v>465</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D180" s="11">
         <v>18.38</v>
@@ -6013,7 +6129,7 @@
         <v>466</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D181" s="11">
         <v>17.5</v>
@@ -6031,7 +6147,7 @@
         <v>467</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D182" s="11">
         <v>16.899999999999999</v>
@@ -6049,7 +6165,7 @@
         <v>468</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D183" s="11">
         <v>16.899999999999999</v>
@@ -6085,7 +6201,7 @@
         <v>470</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D185" s="11">
         <v>16.899999999999999</v>
@@ -6103,7 +6219,7 @@
         <v>471</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D186" s="11">
         <v>16.899999999999999</v>
@@ -6121,7 +6237,7 @@
         <v>472</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D187" s="11">
         <v>17.5</v>
@@ -6139,7 +6255,7 @@
         <v>473</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D188" s="11">
         <v>16.899999999999999</v>
@@ -6157,7 +6273,7 @@
         <v>474</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D189" s="11">
         <v>16.899999999999999</v>
@@ -6175,7 +6291,7 @@
         <v>475</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D190" s="11">
         <v>17.5</v>
@@ -6193,7 +6309,7 @@
         <v>476</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D191" s="11">
         <v>17.48</v>
@@ -6211,7 +6327,7 @@
         <v>477</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D192" s="11">
         <v>18.38</v>
@@ -6247,7 +6363,7 @@
         <v>479</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D194" s="11">
         <v>16.899999999999999</v>
@@ -6265,7 +6381,7 @@
         <v>480</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D195" s="11">
         <v>17.48</v>
@@ -6301,7 +6417,7 @@
         <v>482</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D197" s="11">
         <v>18.38</v>
@@ -6319,7 +6435,7 @@
         <v>483</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D198" s="11">
         <v>18.38</v>
@@ -6355,7 +6471,7 @@
         <v>485</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D200" s="11">
         <v>18.37</v>
@@ -6387,11 +6503,11 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="5"/>
-      <c r="B202" s="10" t="s">
+      <c r="B202" s="13" t="s">
         <v>487</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D202" s="11">
         <v>7.95</v>
@@ -6405,11 +6521,11 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="5"/>
-      <c r="B203" s="10" t="s">
+      <c r="B203" s="13" t="s">
         <v>488</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D203" s="11">
         <v>7.95</v>
@@ -6423,11 +6539,11 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="5"/>
-      <c r="B204" s="10" t="s">
+      <c r="B204" s="13" t="s">
         <v>489</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D204" s="11">
         <v>2.7</v>
@@ -6441,11 +6557,11 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="5"/>
-      <c r="B205" s="10" t="s">
+      <c r="B205" s="13" t="s">
         <v>490</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D205" s="11">
         <v>9.2000000000000011</v>
@@ -6459,7 +6575,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="5"/>
-      <c r="B206" s="10" t="s">
+      <c r="B206" s="13" t="s">
         <v>491</v>
       </c>
       <c r="D206" s="11">
@@ -6474,11 +6590,11 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="5"/>
-      <c r="B207" s="10" t="s">
+      <c r="B207" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D207" s="11">
         <v>4.8</v>
@@ -6492,11 +6608,11 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="5"/>
-      <c r="B208" s="10" t="s">
+      <c r="B208" s="13" t="s">
         <v>493</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D208" s="11">
         <v>1.9000000000000001</v>
@@ -6510,11 +6626,11 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="5"/>
-      <c r="B209" s="10" t="s">
+      <c r="B209" s="13" t="s">
         <v>494</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D209" s="11">
         <v>4.5</v>
@@ -6528,11 +6644,11 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="5"/>
-      <c r="B210" s="10" t="s">
+      <c r="B210" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D210" s="11">
         <v>19.600000000000001</v>
@@ -6546,11 +6662,11 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="5"/>
-      <c r="B211" s="10" t="s">
+      <c r="B211" s="13" t="s">
         <v>496</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D211" s="11">
         <v>3.9</v>
@@ -6564,7 +6680,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="5"/>
-      <c r="B212" s="10" t="s">
+      <c r="B212" s="13" t="s">
         <v>497</v>
       </c>
       <c r="D212" s="11">
@@ -6579,7 +6695,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="5"/>
-      <c r="B213" s="10" t="s">
+      <c r="B213" s="13" t="s">
         <v>498</v>
       </c>
       <c r="D213" s="11">
@@ -6594,7 +6710,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="5"/>
-      <c r="B214" s="10" t="s">
+      <c r="B214" s="13" t="s">
         <v>499</v>
       </c>
       <c r="D214" s="11">
@@ -6609,11 +6725,11 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="5"/>
-      <c r="B215" s="10" t="s">
+      <c r="B215" s="13" t="s">
         <v>500</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D215" s="11">
         <v>12.780000000000001</v>
@@ -6627,11 +6743,11 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="5"/>
-      <c r="B216" s="10" t="s">
+      <c r="B216" s="13" t="s">
         <v>501</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D216" s="11">
         <v>11.34</v>
@@ -6645,11 +6761,11 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="5"/>
-      <c r="B217" s="10" t="s">
+      <c r="B217" s="13" t="s">
         <v>502</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D217" s="11">
         <v>11.9</v>
@@ -6663,7 +6779,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="5"/>
-      <c r="B218" s="10" t="s">
+      <c r="B218" s="13" t="s">
         <v>503</v>
       </c>
       <c r="D218" s="11">
@@ -6678,11 +6794,11 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="5"/>
-      <c r="B219" s="10" t="s">
+      <c r="B219" s="13" t="s">
         <v>504</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D219" s="11">
         <v>11.34</v>
@@ -6696,11 +6812,11 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="5"/>
-      <c r="B220" s="10" t="s">
+      <c r="B220" s="13" t="s">
         <v>505</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D220" s="11">
         <v>12.34</v>
@@ -6714,11 +6830,11 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="5"/>
-      <c r="B221" s="10" t="s">
+      <c r="B221" s="13" t="s">
         <v>506</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D221" s="11">
         <v>12.34</v>
@@ -6732,11 +6848,11 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="5"/>
-      <c r="B222" s="10" t="s">
+      <c r="B222" s="13" t="s">
         <v>507</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D222" s="11">
         <v>12.780000000000001</v>
@@ -6750,11 +6866,11 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="5"/>
-      <c r="B223" s="10" t="s">
+      <c r="B223" s="13" t="s">
         <v>508</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D223" s="11">
         <v>13.42</v>
@@ -6768,7 +6884,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="5"/>
-      <c r="B224" s="10" t="s">
+      <c r="B224" s="13" t="s">
         <v>509</v>
       </c>
       <c r="D224" s="11">
@@ -6783,7 +6899,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="5"/>
-      <c r="B225" s="10" t="s">
+      <c r="B225" s="13" t="s">
         <v>510</v>
       </c>
       <c r="D225" s="11">
@@ -6798,11 +6914,11 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="5"/>
-      <c r="B226" s="10" t="s">
+      <c r="B226" s="13" t="s">
         <v>511</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D226" s="11">
         <v>11.9</v>
@@ -6816,7 +6932,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="5"/>
-      <c r="B227" s="10" t="s">
+      <c r="B227" s="13" t="s">
         <v>512</v>
       </c>
       <c r="D227" s="11">
@@ -6831,11 +6947,11 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="5"/>
-      <c r="B228" s="10" t="s">
+      <c r="B228" s="13" t="s">
         <v>513</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D228" s="11">
         <v>10.9</v>
@@ -6849,7 +6965,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="5"/>
-      <c r="B229" s="10" t="s">
+      <c r="B229" s="13" t="s">
         <v>514</v>
       </c>
       <c r="C229" s="2" t="s">
@@ -6867,11 +6983,11 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="5"/>
-      <c r="B230" s="10" t="s">
+      <c r="B230" s="13" t="s">
         <v>515</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D230" s="11">
         <v>3.0300000000000002</v>
@@ -6885,11 +7001,11 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="5"/>
-      <c r="B231" s="10" t="s">
+      <c r="B231" s="13" t="s">
         <v>516</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D231" s="11">
         <v>5.18</v>
@@ -6903,11 +7019,11 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="5"/>
-      <c r="B232" s="10" t="s">
+      <c r="B232" s="13" t="s">
         <v>517</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D232" s="11">
         <v>9.5500000000000007</v>
@@ -6921,7 +7037,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="5"/>
-      <c r="B233" s="10" t="s">
+      <c r="B233" s="13" t="s">
         <v>518</v>
       </c>
       <c r="D233" s="11">
@@ -6936,7 +7052,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="5"/>
-      <c r="B234" s="10" t="s">
+      <c r="B234" s="13" t="s">
         <v>519</v>
       </c>
       <c r="D234" s="11">
@@ -6951,11 +7067,11 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="5"/>
-      <c r="B235" s="10" t="s">
+      <c r="B235" s="13" t="s">
         <v>520</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D235" s="11">
         <v>5.67</v>
@@ -6969,7 +7085,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="5"/>
-      <c r="B236" s="10" t="s">
+      <c r="B236" s="13" t="s">
         <v>521</v>
       </c>
       <c r="D236" s="11">
@@ -6984,7 +7100,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="5"/>
-      <c r="B237" s="10" t="s">
+      <c r="B237" s="13" t="s">
         <v>522</v>
       </c>
       <c r="D237" s="11">
@@ -6999,7 +7115,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="5"/>
-      <c r="B238" s="10" t="s">
+      <c r="B238" s="13" t="s">
         <v>523</v>
       </c>
       <c r="D238" s="11">
@@ -7014,7 +7130,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="5"/>
-      <c r="B239" s="10" t="s">
+      <c r="B239" s="13" t="s">
         <v>524</v>
       </c>
       <c r="D239" s="11">
@@ -7029,7 +7145,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="5"/>
-      <c r="B240" s="10" t="s">
+      <c r="B240" s="13" t="s">
         <v>525</v>
       </c>
       <c r="D240" s="11">
@@ -7044,7 +7160,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="5"/>
-      <c r="B241" s="10" t="s">
+      <c r="B241" s="13" t="s">
         <v>526</v>
       </c>
       <c r="D241" s="11">
@@ -7059,7 +7175,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="5"/>
-      <c r="B242" s="10" t="s">
+      <c r="B242" s="13" t="s">
         <v>527</v>
       </c>
       <c r="D242" s="11">
@@ -7074,7 +7190,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="5"/>
-      <c r="B243" s="10" t="s">
+      <c r="B243" s="13" t="s">
         <v>528</v>
       </c>
       <c r="D243" s="11">
@@ -7089,7 +7205,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="5"/>
-      <c r="B244" s="10" t="s">
+      <c r="B244" s="13" t="s">
         <v>529</v>
       </c>
       <c r="D244" s="11">
@@ -7104,7 +7220,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="5"/>
-      <c r="B245" s="10" t="s">
+      <c r="B245" s="13" t="s">
         <v>530</v>
       </c>
       <c r="D245" s="11">
@@ -7119,7 +7235,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="5"/>
-      <c r="B246" s="10" t="s">
+      <c r="B246" s="13" t="s">
         <v>531</v>
       </c>
       <c r="D246" s="11">
@@ -7134,7 +7250,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="5"/>
-      <c r="B247" s="10" t="s">
+      <c r="B247" s="13" t="s">
         <v>532</v>
       </c>
       <c r="D247" s="11">
@@ -7149,7 +7265,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="5"/>
-      <c r="B248" s="10" t="s">
+      <c r="B248" s="13" t="s">
         <v>533</v>
       </c>
       <c r="D248" s="11">
@@ -7164,7 +7280,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="5"/>
-      <c r="B249" s="10" t="s">
+      <c r="B249" s="13" t="s">
         <v>534</v>
       </c>
       <c r="D249" s="11">
@@ -7179,7 +7295,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="5"/>
-      <c r="B250" s="10" t="s">
+      <c r="B250" s="13" t="s">
         <v>535</v>
       </c>
       <c r="D250" s="11">
@@ -7194,7 +7310,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="5"/>
-      <c r="B251" s="10" t="s">
+      <c r="B251" s="13" t="s">
         <v>536</v>
       </c>
       <c r="D251" s="11">
@@ -7209,7 +7325,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="5"/>
-      <c r="B252" s="10" t="s">
+      <c r="B252" s="13" t="s">
         <v>537</v>
       </c>
       <c r="D252" s="11">
@@ -7224,7 +7340,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="5"/>
-      <c r="B253" s="10" t="s">
+      <c r="B253" s="13" t="s">
         <v>538</v>
       </c>
       <c r="D253" s="11">
@@ -7239,7 +7355,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="5"/>
-      <c r="B254" s="10" t="s">
+      <c r="B254" s="13" t="s">
         <v>539</v>
       </c>
       <c r="D254" s="11">
@@ -7254,7 +7370,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="5"/>
-      <c r="B255" s="10" t="s">
+      <c r="B255" s="13" t="s">
         <v>540</v>
       </c>
       <c r="D255" s="11">
@@ -7269,7 +7385,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="5"/>
-      <c r="B256" s="10" t="s">
+      <c r="B256" s="13" t="s">
         <v>541</v>
       </c>
       <c r="D256" s="11">
@@ -7284,7 +7400,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="5"/>
-      <c r="B257" s="10" t="s">
+      <c r="B257" s="13" t="s">
         <v>542</v>
       </c>
       <c r="D257" s="11">
@@ -7299,7 +7415,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="5"/>
-      <c r="B258" s="10" t="s">
+      <c r="B258" s="13" t="s">
         <v>543</v>
       </c>
       <c r="D258" s="11">
@@ -7314,7 +7430,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="5"/>
-      <c r="B259" s="10" t="s">
+      <c r="B259" s="13" t="s">
         <v>544</v>
       </c>
       <c r="D259" s="11">
@@ -7329,7 +7445,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="5"/>
-      <c r="B260" s="10" t="s">
+      <c r="B260" s="13" t="s">
         <v>545</v>
       </c>
       <c r="D260" s="11">
@@ -7344,7 +7460,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="5"/>
-      <c r="B261" s="10" t="s">
+      <c r="B261" s="13" t="s">
         <v>546</v>
       </c>
       <c r="D261" s="11">
@@ -7359,7 +7475,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="5"/>
-      <c r="B262" s="10" t="s">
+      <c r="B262" s="13" t="s">
         <v>547</v>
       </c>
       <c r="D262" s="11">
@@ -7374,7 +7490,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="5"/>
-      <c r="B263" s="10" t="s">
+      <c r="B263" s="13" t="s">
         <v>548</v>
       </c>
       <c r="D263" s="11">
@@ -7389,7 +7505,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="5"/>
-      <c r="B264" s="10" t="s">
+      <c r="B264" s="13" t="s">
         <v>549</v>
       </c>
       <c r="D264" s="11">
@@ -7404,7 +7520,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="5"/>
-      <c r="B265" s="10" t="s">
+      <c r="B265" s="13" t="s">
         <v>550</v>
       </c>
       <c r="D265" s="11">
@@ -7419,7 +7535,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="5"/>
-      <c r="B266" s="10" t="s">
+      <c r="B266" s="13" t="s">
         <v>551</v>
       </c>
       <c r="D266" s="11">
@@ -7434,7 +7550,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="5"/>
-      <c r="B267" s="10" t="s">
+      <c r="B267" s="13" t="s">
         <v>552</v>
       </c>
       <c r="D267" s="11">
@@ -7449,7 +7565,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="5"/>
-      <c r="B268" s="10" t="s">
+      <c r="B268" s="13" t="s">
         <v>553</v>
       </c>
       <c r="D268" s="11">
@@ -7464,7 +7580,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="5"/>
-      <c r="B269" s="10" t="s">
+      <c r="B269" s="13" t="s">
         <v>554</v>
       </c>
       <c r="D269" s="11">
@@ -7479,7 +7595,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="5"/>
-      <c r="B270" s="10" t="s">
+      <c r="B270" s="13" t="s">
         <v>555</v>
       </c>
       <c r="D270" s="11">
@@ -7494,7 +7610,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="5"/>
-      <c r="B271" s="10" t="s">
+      <c r="B271" s="13" t="s">
         <v>556</v>
       </c>
       <c r="D271" s="11">
@@ -7509,7 +7625,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="5"/>
-      <c r="B272" s="10" t="s">
+      <c r="B272" s="13" t="s">
         <v>557</v>
       </c>
       <c r="D272" s="11">
@@ -7524,7 +7640,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="5"/>
-      <c r="B273" s="10" t="s">
+      <c r="B273" s="13" t="s">
         <v>558</v>
       </c>
       <c r="D273" s="11">
@@ -7539,7 +7655,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="5"/>
-      <c r="B274" s="10" t="s">
+      <c r="B274" s="13" t="s">
         <v>559</v>
       </c>
       <c r="D274" s="11">
@@ -7554,7 +7670,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="5"/>
-      <c r="B275" s="10" t="s">
+      <c r="B275" s="13" t="s">
         <v>560</v>
       </c>
       <c r="D275" s="11">
@@ -7569,11 +7685,11 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="5"/>
-      <c r="B276" s="10" t="s">
+      <c r="B276" s="13" t="s">
         <v>561</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D276" s="11">
         <v>12.39</v>
@@ -7587,7 +7703,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="5"/>
-      <c r="B277" s="10" t="s">
+      <c r="B277" s="13" t="s">
         <v>562</v>
       </c>
       <c r="C277" s="2" t="s">
@@ -7605,11 +7721,11 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="5"/>
-      <c r="B278" s="10" t="s">
+      <c r="B278" s="13" t="s">
         <v>563</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D278" s="11">
         <v>12.39</v>
@@ -7627,7 +7743,7 @@
         <v>564</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D279" s="11">
         <v>18.38</v>
@@ -7645,7 +7761,7 @@
         <v>565</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D280" s="11">
         <v>16.899999999999999</v>
@@ -7663,7 +7779,7 @@
         <v>566</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D281" s="11">
         <v>16.899999999999999</v>
@@ -7681,7 +7797,7 @@
         <v>567</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D282" s="11">
         <v>18.38</v>
@@ -7699,7 +7815,7 @@
         <v>568</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D283" s="11">
         <v>16.899999999999999</v>
@@ -7714,7 +7830,6 @@
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
-      <c r="C284" s="5"/>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
       <c r="F284" s="5"/>
@@ -7722,7 +7837,6 @@
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
-      <c r="C285" s="5"/>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
@@ -7730,7 +7844,6 @@
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
-      <c r="C286" s="5"/>
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
@@ -7738,7 +7851,6 @@
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
-      <c r="C287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
@@ -7746,7 +7858,6 @@
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
-      <c r="C288" s="5"/>
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
@@ -7754,7 +7865,6 @@
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
-      <c r="C289" s="5"/>
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
@@ -7762,7 +7872,6 @@
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
-      <c r="C290" s="5"/>
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
@@ -7770,7 +7879,6 @@
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
-      <c r="C291" s="5"/>
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
@@ -7778,7 +7886,6 @@
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
-      <c r="C292" s="5"/>
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
@@ -7786,7 +7893,6 @@
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
-      <c r="C293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
@@ -7794,7 +7900,6 @@
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
-      <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
@@ -7802,7 +7907,6 @@
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
-      <c r="C295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
@@ -7810,7 +7914,6 @@
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
-      <c r="C296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
       <c r="F296" s="5"/>
@@ -7818,7 +7921,6 @@
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
-      <c r="C297" s="5"/>
       <c r="D297" s="5"/>
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
@@ -7826,7 +7928,6 @@
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
-      <c r="C298" s="5"/>
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
       <c r="F298" s="5"/>
@@ -7834,7 +7935,6 @@
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
-      <c r="C299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
       <c r="F299" s="5"/>
@@ -7842,7 +7942,6 @@
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
-      <c r="C300" s="5"/>
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
       <c r="F300" s="5"/>
@@ -7850,7 +7949,6 @@
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
-      <c r="C301" s="5"/>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
@@ -7858,7 +7956,6 @@
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
-      <c r="C302" s="5"/>
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
       <c r="F302" s="5"/>
@@ -7866,7 +7963,6 @@
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
-      <c r="C303" s="5"/>
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
       <c r="F303" s="5"/>
@@ -7874,7 +7970,6 @@
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
-      <c r="C304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
       <c r="F304" s="5"/>
@@ -7882,7 +7977,6 @@
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
-      <c r="C305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
       <c r="F305" s="5"/>
@@ -7890,7 +7984,6 @@
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
-      <c r="C306" s="5"/>
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
       <c r="F306" s="5"/>
@@ -7898,7 +7991,6 @@
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
-      <c r="C307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
       <c r="F307" s="5"/>
@@ -7906,7 +7998,6 @@
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
-      <c r="C308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
       <c r="F308" s="5"/>
@@ -7914,7 +8005,6 @@
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
-      <c r="C309" s="5"/>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
       <c r="F309" s="5"/>
@@ -7922,7 +8012,6 @@
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
-      <c r="C310" s="5"/>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
       <c r="F310" s="5"/>
@@ -7930,7 +8019,6 @@
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
-      <c r="C311" s="5"/>
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
       <c r="F311" s="5"/>
@@ -7938,7 +8026,6 @@
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
-      <c r="C312" s="5"/>
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
       <c r="F312" s="5"/>
@@ -7946,7 +8033,6 @@
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
-      <c r="C313" s="5"/>
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
       <c r="F313" s="5"/>
@@ -7954,7 +8040,6 @@
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
-      <c r="C314" s="5"/>
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
       <c r="F314" s="5"/>
@@ -7962,7 +8047,6 @@
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
-      <c r="C315" s="5"/>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
       <c r="F315" s="5"/>
@@ -7970,7 +8054,6 @@
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
-      <c r="C316" s="5"/>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
       <c r="F316" s="5"/>
@@ -7978,7 +8061,6 @@
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
-      <c r="C317" s="5"/>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
       <c r="F317" s="5"/>
@@ -7986,7 +8068,6 @@
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
-      <c r="C318" s="5"/>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
       <c r="F318" s="5"/>
@@ -7994,7 +8075,6 @@
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
-      <c r="C319" s="5"/>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
       <c r="F319" s="5"/>
@@ -8002,7 +8082,6 @@
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
-      <c r="C320" s="5"/>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
       <c r="F320" s="5"/>
@@ -8010,7 +8089,6 @@
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
-      <c r="C321" s="5"/>
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
       <c r="F321" s="5"/>
@@ -8018,7 +8096,6 @@
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
-      <c r="C322" s="5"/>
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
       <c r="F322" s="5"/>
@@ -8026,7 +8103,6 @@
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
-      <c r="C323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
       <c r="F323" s="5"/>
@@ -8034,7 +8110,6 @@
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
-      <c r="C324" s="5"/>
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
       <c r="F324" s="5"/>
@@ -8042,7 +8117,6 @@
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
-      <c r="C325" s="5"/>
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
       <c r="F325" s="5"/>
@@ -8050,7 +8124,6 @@
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
-      <c r="C326" s="5"/>
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
       <c r="F326" s="5"/>
@@ -8058,7 +8131,6 @@
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
-      <c r="C327" s="5"/>
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
       <c r="F327" s="5"/>
@@ -8066,7 +8138,6 @@
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
-      <c r="C328" s="5"/>
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
       <c r="F328" s="5"/>
@@ -8074,7 +8145,6 @@
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
-      <c r="C329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
       <c r="F329" s="5"/>
@@ -8082,7 +8152,6 @@
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
-      <c r="C330" s="5"/>
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
       <c r="F330" s="5"/>
@@ -8090,7 +8159,6 @@
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
-      <c r="C331" s="5"/>
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
       <c r="F331" s="5"/>
@@ -8098,7 +8166,6 @@
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
-      <c r="C332" s="5"/>
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
       <c r="F332" s="5"/>
@@ -8106,7 +8173,6 @@
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
-      <c r="C333" s="5"/>
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
       <c r="F333" s="5"/>
@@ -8114,7 +8180,6 @@
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
-      <c r="C334" s="5"/>
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
       <c r="F334" s="5"/>
@@ -8122,7 +8187,6 @@
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
-      <c r="C335" s="5"/>
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
       <c r="F335" s="5"/>
@@ -8130,7 +8194,6 @@
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
-      <c r="C336" s="5"/>
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
       <c r="F336" s="5"/>
@@ -8138,7 +8201,6 @@
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
-      <c r="C337" s="5"/>
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
       <c r="F337" s="5"/>
@@ -8146,7 +8208,6 @@
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
-      <c r="C338" s="5"/>
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
       <c r="F338" s="5"/>
@@ -8154,7 +8215,6 @@
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
-      <c r="C339" s="5"/>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
       <c r="F339" s="5"/>
@@ -8162,7 +8222,6 @@
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
-      <c r="C340" s="5"/>
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
       <c r="F340" s="5"/>
@@ -8170,7 +8229,6 @@
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
-      <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
       <c r="F341" s="5"/>
@@ -8178,7 +8236,6 @@
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
-      <c r="C342" s="5"/>
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
       <c r="F342" s="5"/>
@@ -8186,7 +8243,6 @@
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
-      <c r="C343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
       <c r="F343" s="5"/>
@@ -8194,7 +8250,6 @@
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
-      <c r="C344" s="5"/>
       <c r="D344" s="5"/>
       <c r="E344" s="5"/>
       <c r="F344" s="5"/>
@@ -8202,7 +8257,6 @@
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
-      <c r="C345" s="5"/>
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
       <c r="F345" s="5"/>
@@ -8210,7 +8264,6 @@
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
-      <c r="C346" s="5"/>
       <c r="D346" s="5"/>
       <c r="E346" s="5"/>
       <c r="F346" s="5"/>
@@ -8218,7 +8271,6 @@
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
-      <c r="C347" s="5"/>
       <c r="D347" s="5"/>
       <c r="E347" s="5"/>
       <c r="F347" s="5"/>
@@ -8226,7 +8278,6 @@
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
-      <c r="C348" s="5"/>
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
       <c r="F348" s="5"/>
@@ -8234,7 +8285,6 @@
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
-      <c r="C349" s="5"/>
       <c r="D349" s="5"/>
       <c r="E349" s="5"/>
       <c r="F349" s="5"/>
@@ -8242,7 +8292,6 @@
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
-      <c r="C350" s="5"/>
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
       <c r="F350" s="5"/>
@@ -8250,7 +8299,6 @@
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
-      <c r="C351" s="5"/>
       <c r="D351" s="5"/>
       <c r="E351" s="5"/>
       <c r="F351" s="5"/>
@@ -8258,7 +8306,6 @@
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
-      <c r="C352" s="5"/>
       <c r="D352" s="5"/>
       <c r="E352" s="5"/>
       <c r="F352" s="5"/>
@@ -8266,7 +8313,6 @@
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
-      <c r="C353" s="5"/>
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
       <c r="F353" s="5"/>
@@ -8274,7 +8320,6 @@
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
-      <c r="C354" s="5"/>
       <c r="D354" s="5"/>
       <c r="E354" s="5"/>
       <c r="F354" s="5"/>
@@ -8282,7 +8327,6 @@
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
-      <c r="C355" s="5"/>
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
       <c r="F355" s="5"/>
@@ -8290,7 +8334,6 @@
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
-      <c r="C356" s="5"/>
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
       <c r="F356" s="5"/>
@@ -8298,7 +8341,6 @@
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
-      <c r="C357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
       <c r="F357" s="5"/>
@@ -8306,7 +8348,6 @@
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
-      <c r="C358" s="5"/>
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
       <c r="F358" s="5"/>
@@ -8314,7 +8355,6 @@
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
-      <c r="C359" s="5"/>
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
       <c r="F359" s="5"/>
@@ -8322,7 +8362,6 @@
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
-      <c r="C360" s="5"/>
       <c r="D360" s="5"/>
       <c r="E360" s="5"/>
       <c r="F360" s="5"/>
@@ -8330,7 +8369,6 @@
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
-      <c r="C361" s="5"/>
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
       <c r="F361" s="5"/>
@@ -8338,7 +8376,6 @@
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
-      <c r="C362" s="5"/>
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
       <c r="F362" s="5"/>
@@ -8346,7 +8383,6 @@
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
-      <c r="C363" s="5"/>
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
       <c r="F363" s="5"/>
@@ -8354,7 +8390,6 @@
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
-      <c r="C364" s="5"/>
       <c r="D364" s="5"/>
       <c r="E364" s="5"/>
       <c r="F364" s="5"/>
@@ -8362,7 +8397,6 @@
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
-      <c r="C365" s="5"/>
       <c r="D365" s="5"/>
       <c r="E365" s="5"/>
       <c r="F365" s="5"/>
@@ -8370,7 +8404,6 @@
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
-      <c r="C366" s="5"/>
       <c r="D366" s="5"/>
       <c r="E366" s="5"/>
       <c r="F366" s="5"/>
@@ -8378,7 +8411,6 @@
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
-      <c r="C367" s="5"/>
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
       <c r="F367" s="5"/>
@@ -8386,7 +8418,6 @@
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
-      <c r="C368" s="5"/>
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
       <c r="F368" s="5"/>
@@ -8394,7 +8425,6 @@
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
-      <c r="C369" s="5"/>
       <c r="D369" s="5"/>
       <c r="E369" s="5"/>
       <c r="F369" s="5"/>
@@ -8402,7 +8432,6 @@
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
-      <c r="C370" s="5"/>
       <c r="D370" s="5"/>
       <c r="E370" s="5"/>
       <c r="F370" s="5"/>
@@ -8410,7 +8439,6 @@
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
-      <c r="C371" s="5"/>
       <c r="D371" s="5"/>
       <c r="E371" s="5"/>
       <c r="F371" s="5"/>
@@ -8418,7 +8446,6 @@
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
-      <c r="C372" s="5"/>
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
       <c r="F372" s="5"/>
@@ -8426,7 +8453,6 @@
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
-      <c r="C373" s="5"/>
       <c r="D373" s="5"/>
       <c r="E373" s="5"/>
       <c r="F373" s="5"/>
@@ -8434,7 +8460,6 @@
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
-      <c r="C374" s="5"/>
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
       <c r="F374" s="5"/>
@@ -8442,7 +8467,6 @@
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
-      <c r="C375" s="5"/>
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
       <c r="F375" s="5"/>
@@ -8450,7 +8474,6 @@
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
-      <c r="C376" s="5"/>
       <c r="D376" s="5"/>
       <c r="E376" s="5"/>
       <c r="F376" s="5"/>
@@ -8458,7 +8481,6 @@
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
-      <c r="C377" s="5"/>
       <c r="D377" s="5"/>
       <c r="E377" s="5"/>
       <c r="F377" s="5"/>
@@ -8466,7 +8488,6 @@
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
-      <c r="C378" s="5"/>
       <c r="D378" s="5"/>
       <c r="E378" s="5"/>
       <c r="F378" s="5"/>
@@ -8474,7 +8495,6 @@
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
-      <c r="C379" s="5"/>
       <c r="D379" s="5"/>
       <c r="E379" s="5"/>
       <c r="F379" s="5"/>
@@ -8482,7 +8502,6 @@
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
-      <c r="C380" s="5"/>
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
       <c r="F380" s="5"/>
@@ -8490,7 +8509,6 @@
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
-      <c r="C381" s="5"/>
       <c r="D381" s="5"/>
       <c r="E381" s="5"/>
       <c r="F381" s="5"/>
@@ -8498,7 +8516,6 @@
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
-      <c r="C382" s="5"/>
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
       <c r="F382" s="5"/>
@@ -8506,7 +8523,6 @@
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
-      <c r="C383" s="5"/>
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
       <c r="F383" s="5"/>
@@ -8514,7 +8530,6 @@
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
-      <c r="C384" s="5"/>
       <c r="D384" s="5"/>
       <c r="E384" s="5"/>
       <c r="F384" s="5"/>
@@ -8522,7 +8537,6 @@
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
-      <c r="C385" s="5"/>
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
       <c r="F385" s="5"/>
@@ -8530,7 +8544,6 @@
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
-      <c r="C386" s="5"/>
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
       <c r="F386" s="5"/>
@@ -8538,7 +8551,6 @@
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
-      <c r="C387" s="5"/>
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
       <c r="F387" s="5"/>
@@ -8546,7 +8558,6 @@
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
-      <c r="C388" s="5"/>
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
       <c r="F388" s="5"/>
@@ -8554,7 +8565,6 @@
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
-      <c r="C389" s="5"/>
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
       <c r="F389" s="5"/>
@@ -8562,7 +8572,6 @@
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
-      <c r="C390" s="5"/>
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
       <c r="F390" s="5"/>
@@ -8570,7 +8579,6 @@
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
-      <c r="C391" s="5"/>
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
       <c r="F391" s="5"/>
@@ -8578,7 +8586,6 @@
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
-      <c r="C392" s="5"/>
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
       <c r="F392" s="5"/>
@@ -8586,7 +8593,6 @@
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
-      <c r="C393" s="5"/>
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
       <c r="F393" s="5"/>
@@ -8594,7 +8600,6 @@
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
-      <c r="C394" s="5"/>
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
       <c r="F394" s="5"/>
@@ -8602,7 +8607,6 @@
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
-      <c r="C395" s="5"/>
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
       <c r="F395" s="5"/>
@@ -8610,7 +8614,6 @@
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
-      <c r="C396" s="5"/>
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
       <c r="F396" s="5"/>
@@ -8618,7 +8621,6 @@
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
-      <c r="C397" s="5"/>
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
       <c r="F397" s="5"/>
@@ -8626,7 +8628,6 @@
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
-      <c r="C398" s="5"/>
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
       <c r="F398" s="5"/>
@@ -8634,7 +8635,6 @@
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
-      <c r="C399" s="5"/>
       <c r="D399" s="5"/>
       <c r="E399" s="5"/>
       <c r="F399" s="5"/>
@@ -8642,7 +8642,6 @@
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
-      <c r="C400" s="5"/>
       <c r="D400" s="5"/>
       <c r="E400" s="5"/>
       <c r="F400" s="5"/>
@@ -8650,7 +8649,6 @@
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
-      <c r="C401" s="5"/>
       <c r="D401" s="5"/>
       <c r="E401" s="5"/>
       <c r="F401" s="5"/>
@@ -8658,7 +8656,6 @@
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
-      <c r="C402" s="5"/>
       <c r="D402" s="5"/>
       <c r="E402" s="5"/>
       <c r="F402" s="5"/>
@@ -8666,7 +8663,6 @@
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
-      <c r="C403" s="5"/>
       <c r="D403" s="5"/>
       <c r="E403" s="5"/>
       <c r="F403" s="5"/>
@@ -8674,7 +8670,6 @@
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
-      <c r="C404" s="5"/>
       <c r="D404" s="5"/>
       <c r="E404" s="5"/>
       <c r="F404" s="5"/>
@@ -8682,7 +8677,6 @@
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
-      <c r="C405" s="5"/>
       <c r="D405" s="5"/>
       <c r="E405" s="5"/>
       <c r="F405" s="5"/>
@@ -8690,7 +8684,6 @@
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
-      <c r="C406" s="5"/>
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
       <c r="F406" s="5"/>
@@ -8698,7 +8691,6 @@
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
-      <c r="C407" s="5"/>
       <c r="D407" s="5"/>
       <c r="E407" s="5"/>
       <c r="F407" s="5"/>
@@ -8706,7 +8698,6 @@
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
-      <c r="C408" s="5"/>
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
       <c r="F408" s="5"/>
@@ -8714,7 +8705,6 @@
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
-      <c r="C409" s="5"/>
       <c r="D409" s="5"/>
       <c r="E409" s="5"/>
       <c r="F409" s="5"/>
@@ -8722,7 +8712,6 @@
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
-      <c r="C410" s="5"/>
       <c r="D410" s="5"/>
       <c r="E410" s="5"/>
       <c r="F410" s="5"/>
@@ -8730,7 +8719,6 @@
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
-      <c r="C411" s="5"/>
       <c r="D411" s="5"/>
       <c r="E411" s="5"/>
       <c r="F411" s="5"/>
@@ -8738,7 +8726,6 @@
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
-      <c r="C412" s="5"/>
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
       <c r="F412" s="5"/>
@@ -8746,7 +8733,6 @@
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
-      <c r="C413" s="5"/>
       <c r="D413" s="5"/>
       <c r="E413" s="5"/>
       <c r="F413" s="5"/>
@@ -8754,7 +8740,6 @@
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
-      <c r="C414" s="5"/>
       <c r="D414" s="5"/>
       <c r="E414" s="5"/>
       <c r="F414" s="5"/>
@@ -8762,7 +8747,6 @@
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
-      <c r="C415" s="5"/>
       <c r="D415" s="5"/>
       <c r="E415" s="5"/>
       <c r="F415" s="5"/>
@@ -8770,7 +8754,6 @@
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
-      <c r="C416" s="5"/>
       <c r="D416" s="5"/>
       <c r="E416" s="5"/>
       <c r="F416" s="5"/>
@@ -8778,7 +8761,6 @@
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
-      <c r="C417" s="5"/>
       <c r="D417" s="5"/>
       <c r="E417" s="5"/>
       <c r="F417" s="5"/>
@@ -8786,7 +8768,6 @@
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
-      <c r="C418" s="5"/>
       <c r="D418" s="5"/>
       <c r="E418" s="5"/>
       <c r="F418" s="5"/>
@@ -8794,7 +8775,6 @@
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
-      <c r="C419" s="5"/>
       <c r="D419" s="5"/>
       <c r="E419" s="5"/>
       <c r="F419" s="5"/>
@@ -8802,7 +8782,6 @@
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
-      <c r="C420" s="5"/>
       <c r="D420" s="5"/>
       <c r="E420" s="5"/>
       <c r="F420" s="5"/>
@@ -8810,7 +8789,6 @@
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
-      <c r="C421" s="5"/>
       <c r="D421" s="5"/>
       <c r="E421" s="5"/>
       <c r="F421" s="5"/>
@@ -8818,7 +8796,6 @@
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
-      <c r="C422" s="5"/>
       <c r="D422" s="5"/>
       <c r="E422" s="5"/>
       <c r="F422" s="5"/>
@@ -8826,7 +8803,6 @@
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
-      <c r="C423" s="5"/>
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
       <c r="F423" s="5"/>
@@ -8834,7 +8810,6 @@
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
-      <c r="C424" s="5"/>
       <c r="D424" s="5"/>
       <c r="E424" s="5"/>
       <c r="F424" s="5"/>
@@ -8842,7 +8817,6 @@
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
-      <c r="C425" s="5"/>
       <c r="D425" s="5"/>
       <c r="E425" s="5"/>
       <c r="F425" s="5"/>
@@ -8850,7 +8824,6 @@
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
-      <c r="C426" s="5"/>
       <c r="D426" s="5"/>
       <c r="E426" s="5"/>
       <c r="F426" s="5"/>
@@ -8858,7 +8831,6 @@
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
-      <c r="C427" s="5"/>
       <c r="D427" s="5"/>
       <c r="E427" s="5"/>
       <c r="F427" s="5"/>
@@ -8866,7 +8838,6 @@
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
-      <c r="C428" s="5"/>
       <c r="D428" s="5"/>
       <c r="E428" s="5"/>
       <c r="F428" s="5"/>
@@ -8874,7 +8845,6 @@
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
-      <c r="C429" s="5"/>
       <c r="D429" s="5"/>
       <c r="E429" s="5"/>
       <c r="F429" s="5"/>
@@ -8882,7 +8852,6 @@
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
-      <c r="C430" s="5"/>
       <c r="D430" s="5"/>
       <c r="E430" s="5"/>
       <c r="F430" s="5"/>
@@ -8890,7 +8859,6 @@
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
-      <c r="C431" s="5"/>
       <c r="D431" s="5"/>
       <c r="E431" s="5"/>
       <c r="F431" s="5"/>
@@ -8898,7 +8866,6 @@
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
-      <c r="C432" s="5"/>
       <c r="D432" s="5"/>
       <c r="E432" s="5"/>
       <c r="F432" s="5"/>
@@ -8906,7 +8873,6 @@
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
-      <c r="C433" s="5"/>
       <c r="D433" s="5"/>
       <c r="E433" s="5"/>
       <c r="F433" s="5"/>
@@ -8914,7 +8880,6 @@
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
-      <c r="C434" s="5"/>
       <c r="D434" s="5"/>
       <c r="E434" s="5"/>
       <c r="F434" s="5"/>
@@ -8922,7 +8887,6 @@
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
-      <c r="C435" s="5"/>
       <c r="D435" s="5"/>
       <c r="E435" s="5"/>
       <c r="F435" s="5"/>
@@ -8930,7 +8894,6 @@
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
-      <c r="C436" s="5"/>
       <c r="D436" s="5"/>
       <c r="E436" s="5"/>
       <c r="F436" s="5"/>
@@ -8938,7 +8901,6 @@
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
-      <c r="C437" s="5"/>
       <c r="D437" s="5"/>
       <c r="E437" s="5"/>
       <c r="F437" s="5"/>
@@ -8946,7 +8908,6 @@
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
-      <c r="C438" s="5"/>
       <c r="D438" s="5"/>
       <c r="E438" s="5"/>
       <c r="F438" s="5"/>
@@ -8954,7 +8915,6 @@
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
-      <c r="C439" s="5"/>
       <c r="D439" s="5"/>
       <c r="E439" s="5"/>
       <c r="F439" s="5"/>
@@ -8962,7 +8922,6 @@
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
-      <c r="C440" s="5"/>
       <c r="D440" s="5"/>
       <c r="E440" s="5"/>
       <c r="F440" s="5"/>
@@ -8970,7 +8929,6 @@
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
-      <c r="C441" s="5"/>
       <c r="D441" s="5"/>
       <c r="E441" s="5"/>
       <c r="F441" s="5"/>
@@ -8978,7 +8936,6 @@
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
-      <c r="C442" s="5"/>
       <c r="D442" s="5"/>
       <c r="E442" s="5"/>
       <c r="F442" s="5"/>
@@ -8986,7 +8943,6 @@
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
-      <c r="C443" s="5"/>
       <c r="D443" s="5"/>
       <c r="E443" s="5"/>
       <c r="F443" s="5"/>
@@ -8994,7 +8950,6 @@
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
-      <c r="C444" s="5"/>
       <c r="D444" s="5"/>
       <c r="E444" s="5"/>
       <c r="F444" s="5"/>
@@ -9002,7 +8957,6 @@
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
-      <c r="C445" s="5"/>
       <c r="D445" s="5"/>
       <c r="E445" s="5"/>
       <c r="F445" s="5"/>
@@ -9010,7 +8964,6 @@
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
-      <c r="C446" s="5"/>
       <c r="D446" s="5"/>
       <c r="E446" s="5"/>
       <c r="F446" s="5"/>
@@ -9018,7 +8971,6 @@
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
-      <c r="C447" s="5"/>
       <c r="D447" s="5"/>
       <c r="E447" s="5"/>
       <c r="F447" s="5"/>

--- a/prix/motip-spray.xlsx
+++ b/prix/motip-spray.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\peinture\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61249AC-DD2E-4D92-B234-31E5D71318AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9242D3-AA9A-4BE4-A6FC-DA8308B9A44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
@@ -1746,21 +1746,6 @@
     <t>Fluo</t>
   </si>
   <si>
-    <t>9011</t>
-  </si>
-  <si>
-    <t>9016</t>
-  </si>
-  <si>
-    <t>9017</t>
-  </si>
-  <si>
-    <t>9010 Satin</t>
-  </si>
-  <si>
-    <t>Brillant</t>
-  </si>
-  <si>
     <t>400ml</t>
   </si>
   <si>
@@ -2362,6 +2347,21 @@
   </si>
   <si>
     <t>RAL 9007 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 9010 Satin</t>
+  </si>
+  <si>
+    <t>RAL 9011</t>
+  </si>
+  <si>
+    <t>RAL 9016</t>
+  </si>
+  <si>
+    <t>RAL 9017</t>
+  </si>
+  <si>
+    <t>Vernis Brillant</t>
   </si>
 </sst>
 </file>
@@ -2806,7 +2806,7 @@
   <dimension ref="A1:G450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C289" sqref="C289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2879,13 +2879,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>290</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D4" s="11">
         <v>9.66</v>
@@ -2899,13 +2899,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>291</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D5" s="11">
         <v>9.99</v>
@@ -2919,13 +2919,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>292</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D6" s="11">
         <v>9.66</v>
@@ -2939,13 +2939,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>293</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D7" s="11">
         <v>9.66</v>
@@ -2959,13 +2959,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>294</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D8" s="11">
         <v>10</v>
@@ -2979,13 +2979,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>295</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D9" s="11">
         <v>9.99</v>
@@ -2999,13 +2999,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>296</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D10" s="11">
         <v>9.66</v>
@@ -3019,13 +3019,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>297</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D11" s="11">
         <v>9.66</v>
@@ -3039,13 +3039,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>298</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D12" s="11">
         <v>10.5</v>
@@ -3059,13 +3059,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>299</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D13" s="11">
         <v>9.66</v>
@@ -3079,13 +3079,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>300</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D14" s="11">
         <v>10.5</v>
@@ -3099,13 +3099,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>301</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D15" s="11">
         <v>9.66</v>
@@ -3119,13 +3119,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>302</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D16" s="11">
         <v>10.5</v>
@@ -3139,13 +3139,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>303</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D17" s="11">
         <v>10</v>
@@ -3159,13 +3159,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>304</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D18" s="11">
         <v>9.66</v>
@@ -3179,13 +3179,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>305</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D19" s="11">
         <v>9.99</v>
@@ -3199,13 +3199,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>306</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D20" s="11">
         <v>10</v>
@@ -3219,13 +3219,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>307</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D21" s="11">
         <v>9.99</v>
@@ -3239,13 +3239,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>308</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D22" s="11">
         <v>10</v>
@@ -3259,13 +3259,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>309</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D23" s="11">
         <v>9.66</v>
@@ -3279,13 +3279,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>310</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D24" s="11">
         <v>9.66</v>
@@ -3299,13 +3299,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>311</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D25" s="11">
         <v>9.66</v>
@@ -3319,13 +3319,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>312</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D26" s="11">
         <v>9.99</v>
@@ -3339,13 +3339,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>313</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D27" s="11">
         <v>9.99</v>
@@ -3359,13 +3359,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>314</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D28" s="11">
         <v>9.66</v>
@@ -3379,13 +3379,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>315</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D29" s="11">
         <v>9.66</v>
@@ -3399,13 +3399,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>316</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D30" s="11">
         <v>10</v>
@@ -3419,13 +3419,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>317</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D31" s="11">
         <v>10</v>
@@ -3439,13 +3439,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>318</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D32" s="11">
         <v>10</v>
@@ -3459,13 +3459,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>319</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="D33" s="11">
         <v>9.99</v>
@@ -3479,13 +3479,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>320</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D34" s="11">
         <v>9.66</v>
@@ -3499,13 +3499,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>321</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D35" s="11">
         <v>10</v>
@@ -3519,13 +3519,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>322</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D36" s="11">
         <v>9.66</v>
@@ -3539,13 +3539,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>323</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D37" s="11">
         <v>9.66</v>
@@ -3559,13 +3559,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>324</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D38" s="11">
         <v>9.66</v>
@@ -3579,13 +3579,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>325</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D39" s="11">
         <v>16.47</v>
@@ -3599,13 +3599,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>326</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D40" s="11">
         <v>17.04</v>
@@ -3619,13 +3619,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>327</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D41" s="11">
         <v>16.47</v>
@@ -3639,13 +3639,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>328</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D42" s="11">
         <v>17.04</v>
@@ -3659,13 +3659,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>329</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D43" s="11">
         <v>17.88</v>
@@ -3679,13 +3679,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>330</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D44" s="11">
         <v>17.04</v>
@@ -3699,13 +3699,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>331</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D45" s="11">
         <v>17.04</v>
@@ -3719,13 +3719,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>332</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D46" s="11">
         <v>17.04</v>
@@ -3739,13 +3739,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>333</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D47" s="11">
         <v>16.47</v>
@@ -3759,13 +3759,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>334</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D48" s="11">
         <v>17.04</v>
@@ -3779,13 +3779,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>335</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D49" s="11">
         <v>17.04</v>
@@ -3799,13 +3799,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>336</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D50" s="11">
         <v>17.04</v>
@@ -3819,13 +3819,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>337</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D51" s="11">
         <v>16.47</v>
@@ -3839,13 +3839,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>338</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D52" s="11">
         <v>16.47</v>
@@ -3859,13 +3859,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>339</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D53" s="11">
         <v>16.47</v>
@@ -3879,13 +3879,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>340</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D54" s="11">
         <v>16.47</v>
@@ -3899,13 +3899,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>341</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D55" s="11">
         <v>17.04</v>
@@ -3919,13 +3919,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>342</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D56" s="11">
         <v>16.47</v>
@@ -3939,13 +3939,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>343</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="D57" s="11">
         <v>17.04</v>
@@ -3959,13 +3959,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>344</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D58" s="11">
         <v>16.47</v>
@@ -3979,13 +3979,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>345</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D59" s="11">
         <v>17.900000000000002</v>
@@ -3999,13 +3999,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>346</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D60" s="11">
         <v>17.88</v>
@@ -4019,13 +4019,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>347</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D61" s="11">
         <v>17.04</v>
@@ -4039,13 +4039,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>348</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D62" s="11">
         <v>16.47</v>
@@ -4059,13 +4059,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>349</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D63" s="11">
         <v>16.47</v>
@@ -4079,13 +4079,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>350</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D64" s="11">
         <v>17.04</v>
@@ -4099,13 +4099,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>351</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D65" s="11">
         <v>16.47</v>
@@ -4119,13 +4119,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>352</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="D66" s="11">
         <v>17</v>
@@ -4139,13 +4139,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>353</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="D67" s="11">
         <v>17.900000000000002</v>
@@ -4159,13 +4159,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>354</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D68" s="11">
         <v>17.900000000000002</v>
@@ -4179,13 +4179,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>355</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D69" s="11">
         <v>17.04</v>
@@ -4199,13 +4199,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>356</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="D70" s="11">
         <v>16.47</v>
@@ -4219,13 +4219,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>357</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D71" s="11">
         <v>17.04</v>
@@ -4239,13 +4239,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>358</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="D72" s="11">
         <v>10.5</v>
@@ -4259,13 +4259,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>359</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D73" s="11">
         <v>9.66</v>
@@ -4279,13 +4279,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>360</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="D74" s="11">
         <v>10</v>
@@ -4299,13 +4299,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>361</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="D75" s="11">
         <v>10</v>
@@ -4319,13 +4319,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>362</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D76" s="11">
         <v>6.05</v>
@@ -4339,13 +4339,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>363</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D77" s="11">
         <v>12.64</v>
@@ -4359,13 +4359,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>364</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D78" s="11">
         <v>13.75</v>
@@ -4379,13 +4379,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>365</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D79" s="11">
         <v>12.64</v>
@@ -4399,13 +4399,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>366</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D80" s="11">
         <v>12.64</v>
@@ -4419,13 +4419,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>367</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D81" s="11">
         <v>12.64</v>
@@ -4439,13 +4439,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>368</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="D82" s="11">
         <v>12.64</v>
@@ -4459,13 +4459,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>369</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D83" s="11">
         <v>12.64</v>
@@ -4479,13 +4479,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>370</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D84" s="11">
         <v>12.64</v>
@@ -4499,13 +4499,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>371</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D85" s="11">
         <v>10.5</v>
@@ -4519,13 +4519,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>372</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D86" s="11">
         <v>10.5</v>
@@ -4539,13 +4539,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>373</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="D87" s="11">
         <v>12.64</v>
@@ -4559,13 +4559,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B88" s="10" t="s">
         <v>374</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D88" s="11">
         <v>12.64</v>
@@ -4579,13 +4579,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>375</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D89" s="11">
         <v>10.5</v>
@@ -4599,13 +4599,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>376</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D90" s="11">
         <v>12.64</v>
@@ -4619,13 +4619,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D91" s="11">
         <v>12.64</v>
@@ -4639,13 +4639,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>378</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D92" s="11">
         <v>12.64</v>
@@ -4659,13 +4659,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>379</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="D93" s="11">
         <v>12.64</v>
@@ -4679,13 +4679,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>380</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="D94" s="11">
         <v>12.64</v>
@@ -4699,13 +4699,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>381</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D95" s="11">
         <v>12.64</v>
@@ -4719,13 +4719,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>382</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D96" s="11">
         <v>12.64</v>
@@ -4739,13 +4739,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>383</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D97" s="11">
         <v>12.64</v>
@@ -4759,13 +4759,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>384</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="D98" s="11">
         <v>12.64</v>
@@ -4779,13 +4779,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B99" s="10" t="s">
         <v>385</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D99" s="11">
         <v>12.64</v>
@@ -4799,13 +4799,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B100" s="10" t="s">
         <v>386</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D100" s="11">
         <v>12.64</v>
@@ -4819,13 +4819,13 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>387</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D101" s="11">
         <v>12.64</v>
@@ -4839,13 +4839,13 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>387</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D102" s="11">
         <v>10.4</v>
@@ -4859,13 +4859,13 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>388</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D103" s="11">
         <v>12.64</v>
@@ -4879,13 +4879,13 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B104" s="10" t="s">
         <v>389</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D104" s="11">
         <v>12.64</v>
@@ -4899,13 +4899,13 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B105" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="D105" s="11">
         <v>10.47</v>
@@ -4919,13 +4919,13 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B106" s="10" t="s">
         <v>391</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="D106" s="11">
         <v>12.64</v>
@@ -4939,13 +4939,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>392</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D107" s="11">
         <v>12.64</v>
@@ -4959,13 +4959,13 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>393</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D108" s="11">
         <v>12.64</v>
@@ -4979,13 +4979,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>394</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D109" s="11">
         <v>12.64</v>
@@ -4999,13 +4999,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>395</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="D110" s="11">
         <v>12.64</v>
@@ -5019,13 +5019,13 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>396</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D111" s="11">
         <v>12.64</v>
@@ -5039,13 +5039,13 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>397</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D112" s="11">
         <v>13.75</v>
@@ -5059,13 +5059,13 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>398</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="D113" s="11">
         <v>12.64</v>
@@ -5079,13 +5079,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B114" s="10" t="s">
         <v>399</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="D114" s="11">
         <v>13.08</v>
@@ -5099,13 +5099,13 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B115" s="10" t="s">
         <v>400</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D115" s="11">
         <v>13.08</v>
@@ -5119,13 +5119,13 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B116" s="10" t="s">
         <v>401</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D116" s="11">
         <v>13.75</v>
@@ -5139,13 +5139,13 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D117" s="11">
         <v>10.47</v>
@@ -5159,13 +5159,13 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B118" s="10" t="s">
         <v>402</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D118" s="11">
         <v>12.64</v>
@@ -5179,13 +5179,13 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B119" s="10" t="s">
         <v>403</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D119" s="11">
         <v>12.64</v>
@@ -5199,13 +5199,13 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B120" s="10" t="s">
         <v>404</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D120" s="11">
         <v>13.1</v>
@@ -5219,13 +5219,13 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B121" s="10" t="s">
         <v>405</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D121" s="11">
         <v>12.64</v>
@@ -5239,13 +5239,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B122" s="10" t="s">
         <v>406</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D122" s="11">
         <v>12.64</v>
@@ -5259,13 +5259,13 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>407</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D123" s="11">
         <v>12.64</v>
@@ -5279,13 +5279,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B124" s="10" t="s">
         <v>408</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D124" s="11">
         <v>12.64</v>
@@ -5299,13 +5299,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B125" s="10" t="s">
         <v>409</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D125" s="11">
         <v>13.75</v>
@@ -5319,13 +5319,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B126" s="10" t="s">
         <v>410</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D126" s="11">
         <v>12.64</v>
@@ -5339,13 +5339,13 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B127" s="10" t="s">
         <v>411</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D127" s="11">
         <v>13.75</v>
@@ -5359,13 +5359,13 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B128" s="10" t="s">
         <v>412</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D128" s="11">
         <v>12.64</v>
@@ -5379,13 +5379,13 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B129" s="10" t="s">
         <v>413</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D129" s="11">
         <v>16.899999999999999</v>
@@ -5399,13 +5399,13 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B130" s="10" t="s">
         <v>414</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D130" s="11">
         <v>16.899999999999999</v>
@@ -5419,13 +5419,13 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B131" s="10" t="s">
         <v>415</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D131" s="11">
         <v>18.350000000000001</v>
@@ -5439,13 +5439,13 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>416</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D132" s="11">
         <v>16.899999999999999</v>
@@ -5459,13 +5459,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B133" s="10" t="s">
         <v>417</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D133" s="11">
         <v>18.350000000000001</v>
@@ -5479,13 +5479,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B134" s="10" t="s">
         <v>418</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D134" s="11">
         <v>13.9</v>
@@ -5499,13 +5499,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>419</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="D135" s="11">
         <v>16.899999999999999</v>
@@ -5519,13 +5519,13 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>420</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D136" s="11">
         <v>16.899999999999999</v>
@@ -5539,13 +5539,13 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>421</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D137" s="11">
         <v>16.899999999999999</v>
@@ -5559,13 +5559,13 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>422</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D138" s="11">
         <v>16.899999999999999</v>
@@ -5579,13 +5579,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B139" s="10" t="s">
         <v>423</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D139" s="11">
         <v>16.899999999999999</v>
@@ -5599,13 +5599,13 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>424</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D140" s="11">
         <v>16.899999999999999</v>
@@ -5619,13 +5619,13 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B141" s="10" t="s">
         <v>425</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D141" s="11">
         <v>16.899999999999999</v>
@@ -5639,13 +5639,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B142" s="10" t="s">
         <v>426</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D142" s="11">
         <v>18.37</v>
@@ -5659,13 +5659,13 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B143" s="10" t="s">
         <v>427</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D143" s="11">
         <v>16.899999999999999</v>
@@ -5679,13 +5679,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B144" s="10" t="s">
         <v>428</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D144" s="11">
         <v>16.899999999999999</v>
@@ -5699,13 +5699,13 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B145" s="10" t="s">
         <v>429</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D145" s="11">
         <v>16.899999999999999</v>
@@ -5719,13 +5719,13 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B146" s="10" t="s">
         <v>430</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D146" s="11">
         <v>16.899999999999999</v>
@@ -5739,13 +5739,13 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B147" s="10" t="s">
         <v>431</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D147" s="11">
         <v>16.899999999999999</v>
@@ -5759,13 +5759,13 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B148" s="10" t="s">
         <v>432</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D148" s="11">
         <v>16.899999999999999</v>
@@ -5779,13 +5779,13 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B149" s="10" t="s">
         <v>433</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D149" s="11">
         <v>16.899999999999999</v>
@@ -5799,13 +5799,13 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B150" s="10" t="s">
         <v>434</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D150" s="11">
         <v>16.899999999999999</v>
@@ -5819,13 +5819,13 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B151" s="10" t="s">
         <v>435</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D151" s="11">
         <v>16.899999999999999</v>
@@ -5839,13 +5839,13 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B152" s="10" t="s">
         <v>436</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D152" s="11">
         <v>17.5</v>
@@ -5859,13 +5859,13 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B153" s="10" t="s">
         <v>437</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D153" s="11">
         <v>16.899999999999999</v>
@@ -5879,13 +5879,13 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B154" s="10" t="s">
         <v>438</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D154" s="11">
         <v>16.899999999999999</v>
@@ -5899,13 +5899,13 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B155" s="10" t="s">
         <v>439</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D155" s="11">
         <v>16.899999999999999</v>
@@ -5919,13 +5919,13 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B156" s="10" t="s">
         <v>440</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D156" s="11">
         <v>18.37</v>
@@ -5939,13 +5939,13 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B157" s="10" t="s">
         <v>441</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D157" s="11">
         <v>18.37</v>
@@ -5959,13 +5959,13 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B158" s="10" t="s">
         <v>442</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D158" s="11">
         <v>16.899999999999999</v>
@@ -5979,13 +5979,13 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B159" s="10" t="s">
         <v>443</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D159" s="11">
         <v>16.899999999999999</v>
@@ -5999,13 +5999,13 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>444</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D160" s="11">
         <v>16.899999999999999</v>
@@ -6019,13 +6019,13 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B161" s="10" t="s">
         <v>445</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D161" s="11">
         <v>16.899999999999999</v>
@@ -6039,13 +6039,13 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B162" s="10" t="s">
         <v>446</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="D162" s="11">
         <v>16.899999999999999</v>
@@ -6059,13 +6059,13 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B163" s="10" t="s">
         <v>447</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D163" s="11">
         <v>16.899999999999999</v>
@@ -6079,13 +6079,13 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B164" s="10" t="s">
         <v>448</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D164" s="11">
         <v>16.899999999999999</v>
@@ -6099,13 +6099,13 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B165" s="10" t="s">
         <v>449</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D165" s="11">
         <v>16.899999999999999</v>
@@ -6119,13 +6119,13 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B166" s="10" t="s">
         <v>450</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="D166" s="11">
         <v>16.899999999999999</v>
@@ -6139,13 +6139,13 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B167" s="10" t="s">
         <v>451</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="D167" s="11">
         <v>16.899999999999999</v>
@@ -6159,13 +6159,13 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B168" s="10" t="s">
         <v>452</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D168" s="11">
         <v>16.899999999999999</v>
@@ -6179,13 +6179,13 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B169" s="10" t="s">
         <v>453</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D169" s="11">
         <v>18.37</v>
@@ -6199,13 +6199,13 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B170" s="10" t="s">
         <v>454</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="D170" s="11">
         <v>16.899999999999999</v>
@@ -6219,13 +6219,13 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B171" s="10" t="s">
         <v>455</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D171" s="11">
         <v>16.899999999999999</v>
@@ -6239,13 +6239,13 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B172" s="10" t="s">
         <v>456</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D172" s="11">
         <v>17.5</v>
@@ -6259,13 +6259,13 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B173" s="10" t="s">
         <v>457</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D173" s="11">
         <v>16.899999999999999</v>
@@ -6279,13 +6279,13 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B174" s="10" t="s">
         <v>458</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D174" s="11">
         <v>17.48</v>
@@ -6299,13 +6299,13 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B175" s="10" t="s">
         <v>459</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D175" s="11">
         <v>17.5</v>
@@ -6319,13 +6319,13 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B176" s="10" t="s">
         <v>460</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="D176" s="11">
         <v>17.5</v>
@@ -6339,13 +6339,13 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B177" s="10" t="s">
         <v>461</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="D177" s="11">
         <v>18.38</v>
@@ -6359,13 +6359,13 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B178" s="10" t="s">
         <v>462</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="D178" s="11">
         <v>16.899999999999999</v>
@@ -6379,13 +6379,13 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B179" s="10" t="s">
         <v>463</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D179" s="11">
         <v>17.5</v>
@@ -6399,13 +6399,13 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B180" s="10" t="s">
         <v>464</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="D180" s="11">
         <v>18.38</v>
@@ -6419,13 +6419,13 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B181" s="10" t="s">
         <v>465</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="D181" s="11">
         <v>17.5</v>
@@ -6439,13 +6439,13 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>466</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="D182" s="11">
         <v>16.899999999999999</v>
@@ -6459,13 +6459,13 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B183" s="10" t="s">
         <v>467</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D183" s="11">
         <v>16.899999999999999</v>
@@ -6479,13 +6479,13 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B184" s="10" t="s">
         <v>468</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D184" s="11">
         <v>17.5</v>
@@ -6499,13 +6499,13 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B185" s="10" t="s">
         <v>469</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="D185" s="11">
         <v>16.899999999999999</v>
@@ -6519,13 +6519,13 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B186" s="10" t="s">
         <v>470</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="D186" s="11">
         <v>16.899999999999999</v>
@@ -6539,13 +6539,13 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B187" s="10" t="s">
         <v>471</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="D187" s="11">
         <v>17.5</v>
@@ -6559,13 +6559,13 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B188" s="10" t="s">
         <v>472</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D188" s="11">
         <v>16.899999999999999</v>
@@ -6579,13 +6579,13 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B189" s="10" t="s">
         <v>473</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="D189" s="11">
         <v>16.899999999999999</v>
@@ -6599,13 +6599,13 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B190" s="10" t="s">
         <v>474</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D190" s="11">
         <v>17.5</v>
@@ -6619,13 +6619,13 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B191" s="10" t="s">
         <v>475</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D191" s="11">
         <v>17.48</v>
@@ -6639,13 +6639,13 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B192" s="10" t="s">
         <v>476</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D192" s="11">
         <v>18.38</v>
@@ -6659,13 +6659,13 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B193" s="10" t="s">
         <v>477</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D193" s="11">
         <v>17.5</v>
@@ -6679,13 +6679,13 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B194" s="10" t="s">
         <v>478</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D194" s="11">
         <v>16.899999999999999</v>
@@ -6699,13 +6699,13 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B195" s="10" t="s">
         <v>479</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="D195" s="11">
         <v>17.48</v>
@@ -6719,13 +6719,13 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B196" s="10" t="s">
         <v>480</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="D196" s="11">
         <v>17.48</v>
@@ -6739,13 +6739,13 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B197" s="10" t="s">
         <v>481</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D197" s="11">
         <v>18.38</v>
@@ -6759,13 +6759,13 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B198" s="10" t="s">
         <v>482</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="D198" s="11">
         <v>18.38</v>
@@ -6779,13 +6779,13 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B199" s="10" t="s">
         <v>483</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D199" s="11">
         <v>17.5</v>
@@ -6799,13 +6799,13 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B200" s="10" t="s">
         <v>484</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="D200" s="11">
         <v>18.37</v>
@@ -6819,13 +6819,13 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B201" s="10" t="s">
         <v>485</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D201" s="11">
         <v>18.37</v>
@@ -7994,13 +7994,13 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B279" s="10" t="s">
         <v>563</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>572</v>
+        <v>770</v>
       </c>
       <c r="D279" s="11">
         <v>18.38</v>
@@ -8014,13 +8014,13 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B280" s="10" t="s">
         <v>564</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>569</v>
+        <v>771</v>
       </c>
       <c r="D280" s="11">
         <v>16.899999999999999</v>
@@ -8034,13 +8034,13 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B281" s="10" t="s">
         <v>565</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>570</v>
+        <v>772</v>
       </c>
       <c r="D281" s="11">
         <v>16.899999999999999</v>
@@ -8054,13 +8054,13 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B282" s="10" t="s">
         <v>566</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>571</v>
+        <v>773</v>
       </c>
       <c r="D282" s="11">
         <v>18.38</v>
@@ -8074,13 +8074,13 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B283" s="10" t="s">
         <v>567</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>573</v>
+        <v>774</v>
       </c>
       <c r="D283" s="11">
         <v>16.899999999999999</v>
@@ -9275,7 +9275,7 @@
         <v>8008</v>
       </c>
       <c r="B1" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -9283,7 +9283,7 @@
         <v>8015</v>
       </c>
       <c r="B2" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9291,7 +9291,7 @@
         <v>8014</v>
       </c>
       <c r="B3" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -9299,7 +9299,7 @@
         <v>8000</v>
       </c>
       <c r="B4" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -9307,7 +9307,7 @@
         <v>8003</v>
       </c>
       <c r="B5" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -9315,7 +9315,7 @@
         <v>8001</v>
       </c>
       <c r="B6" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9323,7 +9323,7 @@
         <v>8006</v>
       </c>
       <c r="B7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -9331,7 +9331,7 @@
         <v>8022</v>
       </c>
       <c r="B8" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -9339,7 +9339,7 @@
         <v>8029</v>
       </c>
       <c r="B9" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -9347,7 +9347,7 @@
         <v>8002</v>
       </c>
       <c r="B10" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -9355,7 +9355,7 @@
         <v>8021</v>
       </c>
       <c r="B11" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -9363,7 +9363,7 @@
         <v>8010</v>
       </c>
       <c r="B12" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -9371,7 +9371,7 @@
         <v>8005</v>
       </c>
       <c r="B13" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -9379,7 +9379,7 @@
         <v>8004</v>
       </c>
       <c r="B14" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -9387,7 +9387,7 @@
         <v>8030</v>
       </c>
       <c r="B15" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -9395,7 +9395,7 @@
         <v>8033</v>
       </c>
       <c r="B16" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -9403,7 +9403,7 @@
         <v>8034</v>
       </c>
       <c r="B17" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -9411,7 +9411,7 @@
         <v>8019</v>
       </c>
       <c r="B18" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -9419,7 +9419,7 @@
         <v>8032</v>
       </c>
       <c r="B19" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -9427,7 +9427,7 @@
         <v>8020</v>
       </c>
       <c r="B20" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -9435,7 +9435,7 @@
         <v>8031</v>
       </c>
       <c r="B21" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -9443,7 +9443,7 @@
         <v>8031</v>
       </c>
       <c r="B22" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -9451,7 +9451,7 @@
         <v>8007</v>
       </c>
       <c r="B23" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -9459,7 +9459,7 @@
         <v>8013</v>
       </c>
       <c r="B24" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -9467,7 +9467,7 @@
         <v>8024</v>
       </c>
       <c r="B25" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -9475,7 +9475,7 @@
         <v>8035</v>
       </c>
       <c r="B26" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -9483,7 +9483,7 @@
         <v>8023</v>
       </c>
       <c r="B27" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -9491,7 +9491,7 @@
         <v>8012</v>
       </c>
       <c r="B28" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -9499,7 +9499,7 @@
         <v>8011</v>
       </c>
       <c r="B29" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -9507,7 +9507,7 @@
         <v>8025</v>
       </c>
       <c r="B30" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -9515,7 +9515,7 @@
         <v>8027</v>
       </c>
       <c r="B31" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -9523,7 +9523,7 @@
         <v>8028</v>
       </c>
       <c r="B32" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -9531,7 +9531,7 @@
         <v>8026</v>
       </c>
       <c r="B33" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -9539,7 +9539,7 @@
         <v>8102</v>
       </c>
       <c r="B34" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -9547,7 +9547,7 @@
         <v>8103</v>
       </c>
       <c r="B35" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -9555,7 +9555,7 @@
         <v>8104</v>
       </c>
       <c r="B36" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>

--- a/prix/motip-spray.xlsx
+++ b/prix/motip-spray.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\peinture\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9242D3-AA9A-4BE4-A6FC-DA8308B9A44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC44FFF3-F6CA-4124-8708-833B9EF24150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="775">
   <si>
     <t>path</t>
   </si>
@@ -2115,9 +2115,6 @@
     <t>Brillant 400 ml</t>
   </si>
   <si>
-    <t>Embout 400 ml</t>
-  </si>
-  <si>
     <t>Rouge pourpre 400 ml</t>
   </si>
   <si>
@@ -2362,6 +2359,9 @@
   </si>
   <si>
     <t>Vernis Brillant</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -2371,7 +2371,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2406,6 +2406,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2427,7 +2433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2468,6 +2474,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2805,8 +2814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065E4AF0-A4F8-4CE3-9E23-EDCEACB756BD}">
   <dimension ref="A1:G450"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C289" sqref="C289"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4325,7 +4334,7 @@
         <v>362</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>692</v>
+        <v>774</v>
       </c>
       <c r="D76" s="11">
         <v>6.05</v>
@@ -4345,7 +4354,7 @@
         <v>363</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D77" s="11">
         <v>12.64</v>
@@ -4365,7 +4374,7 @@
         <v>364</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D78" s="11">
         <v>13.75</v>
@@ -4385,7 +4394,7 @@
         <v>365</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D79" s="11">
         <v>12.64</v>
@@ -4405,7 +4414,7 @@
         <v>366</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D80" s="11">
         <v>12.64</v>
@@ -4425,7 +4434,7 @@
         <v>367</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D81" s="11">
         <v>12.64</v>
@@ -4445,7 +4454,7 @@
         <v>368</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D82" s="11">
         <v>12.64</v>
@@ -4465,7 +4474,7 @@
         <v>369</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D83" s="11">
         <v>12.64</v>
@@ -4485,7 +4494,7 @@
         <v>370</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D84" s="11">
         <v>12.64</v>
@@ -4505,7 +4514,7 @@
         <v>371</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D85" s="11">
         <v>10.5</v>
@@ -4525,7 +4534,7 @@
         <v>372</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D86" s="11">
         <v>10.5</v>
@@ -4545,7 +4554,7 @@
         <v>373</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D87" s="11">
         <v>12.64</v>
@@ -4565,7 +4574,7 @@
         <v>374</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D88" s="11">
         <v>12.64</v>
@@ -4585,7 +4594,7 @@
         <v>375</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D89" s="11">
         <v>10.5</v>
@@ -4605,7 +4614,7 @@
         <v>376</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D90" s="11">
         <v>12.64</v>
@@ -4625,7 +4634,7 @@
         <v>377</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D91" s="11">
         <v>12.64</v>
@@ -4645,7 +4654,7 @@
         <v>378</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D92" s="11">
         <v>12.64</v>
@@ -4665,7 +4674,7 @@
         <v>379</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D93" s="11">
         <v>12.64</v>
@@ -4685,7 +4694,7 @@
         <v>380</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D94" s="11">
         <v>12.64</v>
@@ -4705,7 +4714,7 @@
         <v>381</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D95" s="11">
         <v>12.64</v>
@@ -4725,7 +4734,7 @@
         <v>382</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D96" s="11">
         <v>12.64</v>
@@ -4745,7 +4754,7 @@
         <v>383</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D97" s="11">
         <v>12.64</v>
@@ -4765,7 +4774,7 @@
         <v>384</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D98" s="11">
         <v>12.64</v>
@@ -4785,7 +4794,7 @@
         <v>385</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D99" s="11">
         <v>12.64</v>
@@ -4805,7 +4814,7 @@
         <v>386</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D100" s="11">
         <v>12.64</v>
@@ -4825,7 +4834,7 @@
         <v>387</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D101" s="11">
         <v>12.64</v>
@@ -4845,7 +4854,7 @@
         <v>387</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D102" s="11">
         <v>10.4</v>
@@ -4865,7 +4874,7 @@
         <v>388</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D103" s="11">
         <v>12.64</v>
@@ -4885,7 +4894,7 @@
         <v>389</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D104" s="11">
         <v>12.64</v>
@@ -4905,7 +4914,7 @@
         <v>390</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D105" s="11">
         <v>10.47</v>
@@ -4925,7 +4934,7 @@
         <v>391</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D106" s="11">
         <v>12.64</v>
@@ -4945,7 +4954,7 @@
         <v>392</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D107" s="11">
         <v>12.64</v>
@@ -4965,7 +4974,7 @@
         <v>393</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D108" s="11">
         <v>12.64</v>
@@ -4985,7 +4994,7 @@
         <v>394</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D109" s="11">
         <v>12.64</v>
@@ -5005,7 +5014,7 @@
         <v>395</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D110" s="11">
         <v>12.64</v>
@@ -5025,7 +5034,7 @@
         <v>396</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D111" s="11">
         <v>12.64</v>
@@ -5045,7 +5054,7 @@
         <v>397</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D112" s="11">
         <v>13.75</v>
@@ -5065,7 +5074,7 @@
         <v>398</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D113" s="11">
         <v>12.64</v>
@@ -5085,7 +5094,7 @@
         <v>399</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D114" s="11">
         <v>13.08</v>
@@ -5105,7 +5114,7 @@
         <v>400</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D115" s="11">
         <v>13.08</v>
@@ -5125,7 +5134,7 @@
         <v>401</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D116" s="11">
         <v>13.75</v>
@@ -5145,7 +5154,7 @@
         <v>579</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D117" s="11">
         <v>10.47</v>
@@ -5405,7 +5414,7 @@
         <v>414</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D130" s="11">
         <v>16.899999999999999</v>
@@ -5425,7 +5434,7 @@
         <v>415</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D131" s="11">
         <v>18.350000000000001</v>
@@ -5445,7 +5454,7 @@
         <v>416</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D132" s="11">
         <v>16.899999999999999</v>
@@ -5465,7 +5474,7 @@
         <v>417</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D133" s="11">
         <v>18.350000000000001</v>
@@ -5505,7 +5514,7 @@
         <v>419</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D135" s="11">
         <v>16.899999999999999</v>
@@ -5525,7 +5534,7 @@
         <v>420</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D136" s="11">
         <v>16.899999999999999</v>
@@ -5625,7 +5634,7 @@
         <v>425</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D141" s="11">
         <v>16.899999999999999</v>
@@ -5645,7 +5654,7 @@
         <v>426</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D142" s="11">
         <v>18.37</v>
@@ -5665,7 +5674,7 @@
         <v>427</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D143" s="11">
         <v>16.899999999999999</v>
@@ -5705,7 +5714,7 @@
         <v>429</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D145" s="11">
         <v>16.899999999999999</v>
@@ -5805,7 +5814,7 @@
         <v>434</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D150" s="11">
         <v>16.899999999999999</v>
@@ -5865,7 +5874,7 @@
         <v>437</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D153" s="11">
         <v>16.899999999999999</v>
@@ -5885,7 +5894,7 @@
         <v>438</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D154" s="11">
         <v>16.899999999999999</v>
@@ -5925,7 +5934,7 @@
         <v>440</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D156" s="11">
         <v>18.37</v>
@@ -5945,7 +5954,7 @@
         <v>441</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D157" s="11">
         <v>18.37</v>
@@ -5965,7 +5974,7 @@
         <v>442</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D158" s="11">
         <v>16.899999999999999</v>
@@ -6005,7 +6014,7 @@
         <v>444</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D160" s="11">
         <v>16.899999999999999</v>
@@ -6025,7 +6034,7 @@
         <v>445</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D161" s="11">
         <v>16.899999999999999</v>
@@ -6045,7 +6054,7 @@
         <v>446</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D162" s="11">
         <v>16.899999999999999</v>
@@ -6065,7 +6074,7 @@
         <v>447</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D163" s="11">
         <v>16.899999999999999</v>
@@ -6125,7 +6134,7 @@
         <v>450</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D166" s="11">
         <v>16.899999999999999</v>
@@ -6145,7 +6154,7 @@
         <v>451</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D167" s="11">
         <v>16.899999999999999</v>
@@ -6165,7 +6174,7 @@
         <v>452</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D168" s="11">
         <v>16.899999999999999</v>
@@ -6205,7 +6214,7 @@
         <v>454</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D170" s="11">
         <v>16.899999999999999</v>
@@ -6265,7 +6274,7 @@
         <v>457</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D173" s="11">
         <v>16.899999999999999</v>
@@ -6285,7 +6294,7 @@
         <v>458</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D174" s="11">
         <v>17.48</v>
@@ -6305,7 +6314,7 @@
         <v>459</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D175" s="11">
         <v>17.5</v>
@@ -6325,7 +6334,7 @@
         <v>460</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D176" s="11">
         <v>17.5</v>
@@ -6345,7 +6354,7 @@
         <v>461</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D177" s="11">
         <v>18.38</v>
@@ -6365,7 +6374,7 @@
         <v>462</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D178" s="11">
         <v>16.899999999999999</v>
@@ -6385,7 +6394,7 @@
         <v>463</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D179" s="11">
         <v>17.5</v>
@@ -6405,7 +6414,7 @@
         <v>464</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D180" s="11">
         <v>18.38</v>
@@ -6425,7 +6434,7 @@
         <v>465</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D181" s="11">
         <v>17.5</v>
@@ -6445,7 +6454,7 @@
         <v>466</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D182" s="11">
         <v>16.899999999999999</v>
@@ -6465,7 +6474,7 @@
         <v>467</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D183" s="11">
         <v>16.899999999999999</v>
@@ -6505,7 +6514,7 @@
         <v>469</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D185" s="11">
         <v>16.899999999999999</v>
@@ -6525,7 +6534,7 @@
         <v>470</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D186" s="11">
         <v>16.899999999999999</v>
@@ -6545,7 +6554,7 @@
         <v>471</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D187" s="11">
         <v>17.5</v>
@@ -6565,7 +6574,7 @@
         <v>472</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D188" s="11">
         <v>16.899999999999999</v>
@@ -6585,7 +6594,7 @@
         <v>473</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D189" s="11">
         <v>16.899999999999999</v>
@@ -6605,7 +6614,7 @@
         <v>474</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D190" s="11">
         <v>17.5</v>
@@ -6625,7 +6634,7 @@
         <v>475</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D191" s="11">
         <v>17.48</v>
@@ -6645,7 +6654,7 @@
         <v>476</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D192" s="11">
         <v>18.38</v>
@@ -6685,7 +6694,7 @@
         <v>478</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D194" s="11">
         <v>16.899999999999999</v>
@@ -6705,7 +6714,7 @@
         <v>479</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D195" s="11">
         <v>17.48</v>
@@ -6765,7 +6774,7 @@
         <v>482</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D198" s="11">
         <v>18.38</v>
@@ -6805,7 +6814,7 @@
         <v>484</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D200" s="11">
         <v>18.37</v>
@@ -6853,9 +6862,14 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="5"/>
-      <c r="B203" s="13" t="s">
+      <c r="A203" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B203" s="15" t="s">
         <v>487</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>774</v>
       </c>
       <c r="D203" s="11">
         <v>7.95</v>
@@ -8000,7 +8014,7 @@
         <v>563</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D279" s="11">
         <v>18.38</v>
@@ -8020,7 +8034,7 @@
         <v>564</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D280" s="11">
         <v>16.899999999999999</v>
@@ -8040,7 +8054,7 @@
         <v>565</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D281" s="11">
         <v>16.899999999999999</v>
@@ -8060,7 +8074,7 @@
         <v>566</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D282" s="11">
         <v>18.38</v>
@@ -8080,7 +8094,7 @@
         <v>567</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D283" s="11">
         <v>16.899999999999999</v>
